--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -517,13 +517,13 @@
     <t>com.android.chrome:id/infobar_close_button</t>
   </si>
   <si>
-    <t>ResourceID</t>
-  </si>
-  <si>
     <t>CLOSE_DEVICE_POPUP</t>
   </si>
   <si>
     <t xml:space="preserve"> ']</t>
+  </si>
+  <si>
+    <t>MobileResourceID</t>
   </si>
 </sst>
 </file>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1104,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1655,13 +1655,13 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
         <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
